--- a/released_outputs/table2_hr_hosp.xlsx
+++ b/released_outputs/table2_hr_hosp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t>Table 2: Hazard ratios for VOC vs. non-VOC</t>
   </si>
@@ -144,94 +144,94 @@
     <t>HR (95% CI)</t>
   </si>
   <si>
-    <t>1.52 (1.43-1.62)</t>
-  </si>
-  <si>
-    <t>1.60 (1.50-1.70)</t>
-  </si>
-  <si>
-    <t>1.62 (1.52-1.73)</t>
-  </si>
-  <si>
-    <t>1.63 (1.48-1.78)</t>
-  </si>
-  <si>
-    <t>1.66 (1.51-1.81)</t>
-  </si>
-  <si>
-    <t>1.56 (1.14-2.12)</t>
-  </si>
-  <si>
-    <t>1.64 (1.19-2.26)</t>
-  </si>
-  <si>
-    <t>1.65 (1.30-2.09)</t>
-  </si>
-  <si>
-    <t>1.85 (1.48-2.31)</t>
-  </si>
-  <si>
-    <t>1.82 (1.49-2.22)</t>
-  </si>
-  <si>
-    <t>1.62 (1.34-1.95)</t>
-  </si>
-  <si>
-    <t>1.51 (1.26-1.82)</t>
-  </si>
-  <si>
-    <t>1.78 (1.58-1.99)</t>
-  </si>
-  <si>
-    <t>1.43 (1.25-1.65)</t>
-  </si>
-  <si>
-    <t>1.71 (1.46-2.00)</t>
-  </si>
-  <si>
-    <t>0.96 (0.88-1.05)</t>
-  </si>
-  <si>
-    <t>1.70 (1.54-1.88)</t>
-  </si>
-  <si>
-    <t>1.53 (1.32-1.78)</t>
-  </si>
-  <si>
-    <t>1.58 (1.32-1.90)</t>
+    <t>1.47 (1.38-1.57)</t>
+  </si>
+  <si>
+    <t>1.57 (1.47-1.67)</t>
+  </si>
+  <si>
+    <t>1.59 (1.49-1.69)</t>
+  </si>
+  <si>
+    <t>1.59 (1.45-1.74)</t>
+  </si>
+  <si>
+    <t>1.62 (1.48-1.78)</t>
+  </si>
+  <si>
+    <t>1.54 (1.13-2.10)</t>
+  </si>
+  <si>
+    <t>1.67 (1.21-2.30)</t>
+  </si>
+  <si>
+    <t>1.57 (1.24-1.99)</t>
+  </si>
+  <si>
+    <t>1.83 (1.46-2.28)</t>
+  </si>
+  <si>
+    <t>1.77 (1.45-2.16)</t>
+  </si>
+  <si>
+    <t>1.60 (1.33-1.93)</t>
+  </si>
+  <si>
+    <t>1.47 (1.22-1.76)</t>
+  </si>
+  <si>
+    <t>1.72 (1.53-1.92)</t>
+  </si>
+  <si>
+    <t>1.41 (1.22-1.62)</t>
+  </si>
+  <si>
+    <t>1.72 (1.48-2.02)</t>
+  </si>
+  <si>
+    <t>0.98 (0.90-1.07)</t>
+  </si>
+  <si>
+    <t>1.67 (1.51-1.84)</t>
+  </si>
+  <si>
+    <t>1.50 (1.29-1.74)</t>
+  </si>
+  <si>
+    <t>1.54 (1.28-1.85)</t>
   </si>
   <si>
     <t>1.61 (1.35-1.92)</t>
   </si>
   <si>
-    <t>1.72 (1.46-2.04)</t>
-  </si>
-  <si>
-    <t>1.68 (1.44-1.96)</t>
-  </si>
-  <si>
-    <t>1.67 (1.44-1.93)</t>
-  </si>
-  <si>
-    <t>1.69 (1.53-1.88)</t>
+    <t>1.70 (1.44-2.01)</t>
+  </si>
+  <si>
+    <t>1.65 (1.42-1.93)</t>
+  </si>
+  <si>
+    <t>1.61 (1.39-1.86)</t>
+  </si>
+  <si>
+    <t>1.61 (1.45-1.79)</t>
   </si>
   <si>
     <t>1.59 (1.35-1.88)</t>
   </si>
   <si>
-    <t>1.47 (1.19-1.83)</t>
-  </si>
-  <si>
-    <t>1.73 (1.27-2.34)</t>
-  </si>
-  <si>
-    <t>0.98 (0.91-1.06)</t>
-  </si>
-  <si>
-    <t>1.65 (1.50-1.81)</t>
-  </si>
-  <si>
-    <t>1.63 (1.53-1.73)</t>
+    <t>1.50 (1.21-1.86)</t>
+  </si>
+  <si>
+    <t>1.57 (1.16-2.13)</t>
+  </si>
+  <si>
+    <t>1.00 (0.93-1.08)</t>
+  </si>
+  <si>
+    <t>1.61 (1.47-1.77)</t>
+  </si>
+  <si>
+    <t>1.59 (1.50-1.70)</t>
   </si>
   <si>
     <t>P-value</t>
@@ -240,34 +240,37 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>0.8037</t>
-  </si>
-  <si>
-    <t>0.0052</t>
-  </si>
-  <si>
-    <t>0.0027</t>
-  </si>
-  <si>
-    <t>0.0274</t>
-  </si>
-  <si>
-    <t>0.3545</t>
-  </si>
-  <si>
-    <t>0.1948</t>
-  </si>
-  <si>
-    <t>0.9557</t>
-  </si>
-  <si>
-    <t>0.6091</t>
-  </si>
-  <si>
-    <t>0.0004</t>
-  </si>
-  <si>
-    <t>0.6324</t>
+    <t>0.7730</t>
+  </si>
+  <si>
+    <t>0.0064</t>
+  </si>
+  <si>
+    <t>0.0016</t>
+  </si>
+  <si>
+    <t>0.0002</t>
+  </si>
+  <si>
+    <t>0.0306</t>
+  </si>
+  <si>
+    <t>0.6827</t>
+  </si>
+  <si>
+    <t>0.1839</t>
+  </si>
+  <si>
+    <t>0.9403</t>
+  </si>
+  <si>
+    <t>0.9375</t>
+  </si>
+  <si>
+    <t>0.0034</t>
+  </si>
+  <si>
+    <t>0.9841</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -498,7 +501,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -542,7 +545,7 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -553,7 +556,7 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -586,7 +589,7 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -652,7 +655,7 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +688,7 @@
         <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -696,7 +699,7 @@
         <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
@@ -707,7 +710,7 @@
         <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
